--- a/Demos/Tnew.xlsx
+++ b/Demos/Tnew.xlsx
@@ -13,186 +13,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>最高报价</t>
-  </si>
-  <si>
-    <t>下浮率</t>
-  </si>
-  <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>P值下浮率</t>
-  </si>
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>最高报价</t>
-  </si>
-  <si>
-    <t>下浮率</t>
-  </si>
-  <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>P值下浮率</t>
-  </si>
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>最高报价</t>
-  </si>
-  <si>
-    <t>下浮率</t>
-  </si>
-  <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>P值下浮率</t>
-  </si>
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>最高报价</t>
-  </si>
-  <si>
-    <t>下浮率</t>
-  </si>
-  <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>P值下浮率</t>
-  </si>
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>最高报价</t>
-  </si>
-  <si>
-    <t>下浮率</t>
-  </si>
-  <si>
-    <t>工资</t>
-  </si>
-  <si>
-    <t>P值下浮率</t>
-  </si>
-  <si>
-    <t>工程名称</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
-  </si>
-  <si>
-    <t>2020年中心2</t>
-  </si>
-  <si>
-    <t>2020年中心3</t>
-  </si>
-  <si>
-    <t>2020年中心1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>2020年中心1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>new1</t>
   </si>
   <si>
     <t>2020年中心2</t>
@@ -528,7 +561,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -551,11 +584,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -572,6 +606,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,24 +628,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B2" s="0">
         <v>1538103.8499999999</v>
@@ -627,7 +662,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="B3" s="0">
         <v>3106755.3699999996</v>
@@ -644,7 +679,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B4" s="0">
         <v>2992051.2000000002</v>
@@ -661,7 +696,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="B5" s="0">
         <v>1538103.8499999999</v>
@@ -678,7 +713,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B6" s="0">
         <v>3106755.3699999996</v>
@@ -695,7 +730,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B7" s="0">
         <v>2992051.2000000002</v>
